--- a/Hamburgueria - PC/Excel/vendasSemanais.xlsx
+++ b/Hamburgueria - PC/Excel/vendasSemanais.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGOR\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB0E3D1-F0F6-4CDD-9DFC-68B5EC679F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820FD76-27DB-4C9C-B121-EC08C18BB923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAS" sheetId="1" r:id="rId1"/>
     <sheet name="DELIVERY" sheetId="2" r:id="rId2"/>
     <sheet name="BALCÃO" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>BIG BURGER</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>DELIVERY</t>
+  </si>
+  <si>
+    <t>OBS: Imprimir tabela em modo paisagem</t>
   </si>
 </sst>
 </file>
@@ -73,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -154,42 +157,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -506,42 +512,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D1174-ADF8-4B54-98B5-30D4CE6C3215}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -551,66 +557,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="9">
         <f>SUM(C3:C1048576)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <f>SUM(B3:B1048576)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
         <f>SUM(D3:D1048576)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E6:E7"/>
@@ -624,40 +621,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E131B-9828-4AE9-BAD4-E06ABA8D8D47}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="4" width="16.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -667,56 +664,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="9">
         <f>SUM(C3:C1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <f>SUM(B3:B1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
         <f>SUM(D3:D1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="E3:E4"/>
@@ -730,40 +728,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DF6B7A-FE45-431E-9DA7-805EBCF4888D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="4" width="16.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -773,54 +771,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="9">
         <f>SUM(C3:C1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <f>SUM(B3:B1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
         <f>SUM(D3:D1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="E3:E4"/>

--- a/Hamburgueria - PC/Excel/vendasSemanais.xlsx
+++ b/Hamburgueria - PC/Excel/vendasSemanais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820FD76-27DB-4C9C-B121-EC08C18BB923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341F18B-6550-4E7C-B60C-C4DBD666E71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAS" sheetId="1" r:id="rId1"/>
@@ -164,38 +164,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,42 +515,42 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -558,13 +558,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -572,13 +572,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>SUM(B3:B1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -586,24 +586,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -624,40 +624,40 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -665,13 +665,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -679,13 +679,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>SUM(B3:B1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -693,24 +693,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -731,40 +731,40 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -772,13 +772,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -786,13 +786,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>SUM(B3:B1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -800,24 +800,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
